--- a/crypto_book.xlsx
+++ b/crypto_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C91EB-B92E-4566-9447-6587BD66C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB591C49-12D0-4379-BCA6-2DFE8D451CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33765" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{A613C9E8-9111-426C-AD0D-0425AFDE0B97}"/>
   </bookViews>
@@ -42,9 +42,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -55,25 +54,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -268,14 +253,14 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pyxll.rtd">
-      <tp>
-        <v>7288</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>{CE91D9F9-C8CB-43A5-AE1B-3541C17B1734}</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp>
-        <v>7289</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>{CD617962-CDD2-4F8C-9659-F6B58E16EF8F}</stp>
         <tr r="B2" s="1"/>
@@ -451,79 +436,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.74985797752824201</c:v>
+                  <c:v>0.74986119611660285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72130321849851653</c:v>
+                  <c:v>0.7213035754450916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69507651967138062</c:v>
+                  <c:v>0.69507449686154033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67117788104683407</c:v>
+                  <c:v>0.67117396036594934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6496073026248772</c:v>
+                  <c:v>0.64960196595831832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63036478440550958</c:v>
+                  <c:v>0.63035851363864748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61345032638873165</c:v>
+                  <c:v>0.61344360340693671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59886392857454318</c:v>
+                  <c:v>0.59885723526318602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58660559096294418</c:v>
+                  <c:v>0.58659940920739539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57667531355393475</c:v>
+                  <c:v>0.57667012523956485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5690730963475148</c:v>
+                  <c:v>0.56906938335969448</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56379893934368419</c:v>
+                  <c:v>0.56379718356778419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56085284254244328</c:v>
+                  <c:v>0.56085352586383386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56023480594379171</c:v>
+                  <c:v>0.56023841024784382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56194482954772962</c:v>
+                  <c:v>0.56195183671981375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5659829133542571</c:v>
+                  <c:v>0.56599380527974386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57234905736337405</c:v>
+                  <c:v>0.57236431592763393</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58104326157508046</c:v>
+                  <c:v>0.58106336866348418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59206552598937645</c:v>
+                  <c:v>0.59209096348729451</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.60541585060626191</c:v>
+                  <c:v>0.60544710039906491</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.62109423542573694</c:v>
+                  <c:v>0.62113177939879549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63910068044780122</c:v>
+                  <c:v>0.63914500048648615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65943518567245507</c:v>
+                  <c:v>0.65948676366213677</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68209775109969861</c:v>
+                  <c:v>0.68215706892574757</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7070883767295314</c:v>
+                  <c:v>0.70715591627731855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,68 +1304,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>8</v>
-    <v>8</v>
-    <v>52</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1854,11 +1777,11 @@
       </c>
       <c r="B5" s="2">
         <f ca="1">NOW()</f>
-        <v>45759.937885879626</v>
+        <v>45759.96848333333</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">NOW()</f>
-        <v>45759.937876504628</v>
+        <v>45759.96848275463</v>
       </c>
       <c r="X5" t="str">
         <v>KXBTCMAXY-25-DEC31-499999.99</v>
@@ -1891,11 +1814,11 @@
       </c>
       <c r="B6">
         <f ca="1">($E$1-B5)/365</f>
-        <v>0.71797839485033899</v>
+        <v>0.71789456621005376</v>
       </c>
       <c r="C6">
         <f ca="1">($E$1-C5)/365</f>
-        <v>0.71797842053526673</v>
+        <v>0.71789456779553473</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" ref="Q6">_xll.get_cwd()</f>
@@ -2493,11 +2416,11 @@
       </c>
       <c r="J19" s="5" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">_xll.generate_interpolation_function(I19,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.59244376450175873</v>
+        <v>0.59243726673212294</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">_xll.price_one_touch($C$2,I19,J19,$C$3,$C$6)</f>
-        <v>0.30543597126111977</v>
+        <v>0.30543192699043875</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" ref="L19">_xll.get_position(A19,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2505,7 +2428,7 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.one_touch_delta($C$2,I19,J19,$C$3,$C$6)</f>
-        <v>1.1814969488830235E-2</v>
+        <v>1.1814977917919439E-2</v>
       </c>
       <c r="N19">
         <f ca="1">L19*M19</f>
@@ -2566,11 +2489,11 @@
       </c>
       <c r="J20" s="5" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">_xll.generate_interpolation_function(I20,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.569073102785703</v>
+        <v>0.5690693897961665</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">_xll.price_one_touch($C$2,I20,J20,$C$3,$C$6)</f>
-        <v>0.12706263019869984</v>
+        <v>0.12706061885307587</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" ref="L20">_xll.get_position(A20,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2578,11 +2501,11 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.one_touch_delta($C$2,I20,J20,$C$3,$C$6)</f>
-        <v>6.3623294117648027E-3</v>
+        <v>6.362289181448065E-3</v>
       </c>
       <c r="N20">
         <f ca="1">L20*M20</f>
-        <v>7.6284329647059987</v>
+        <v>7.6283847285562301</v>
       </c>
       <c r="X20" t="str">
         <v>KXTIME-25-GPT</v>
@@ -2639,11 +2562,11 @@
       </c>
       <c r="J21" s="5" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">_xll.generate_interpolation_function(I21,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56379894345381221</v>
+        <v>0.56379718767571396</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">_xll.price_one_touch($C$2,I21,J21,$C$3,$C$6)</f>
-        <v>8.8507303107468016E-2</v>
+        <v>8.8506485427215481E-2</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" ref="L21">_xll.get_position(A21,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2651,11 +2574,11 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.one_touch_delta($C$2,I21,J21,$C$3,$C$6)</f>
-        <v>4.8019644518838556E-3</v>
+        <v>4.8019426272631893E-3</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N20:N26" ca="1" si="0">L21*M21</f>
-        <v>2.4009822259419278</v>
+        <f t="shared" ref="N21:N25" ca="1" si="0">L21*M21</f>
+        <v>2.4009713136315947</v>
       </c>
       <c r="X21" t="str">
         <v>KXDCEILEND-26</v>
@@ -2712,11 +2635,11 @@
       </c>
       <c r="J22" s="5" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">_xll.generate_interpolation_function(I22,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56023480539779924</v>
+        <v>0.56023840969868954</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">_xll.price_one_touch($C$2,I22,J22,$C$3,$C$6)</f>
-        <v>4.3828885185895755E-2</v>
+        <v>4.3830028856025355E-2</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" ref="L22">_xll.get_position(A22,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2724,11 +2647,11 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.one_touch_delta($C$2,I22,J22,$C$3,$C$6)</f>
-        <v>2.6904349304216063E-3</v>
+        <v>2.690477789345308E-3</v>
       </c>
       <c r="N22">
         <f ca="1">L22*M22</f>
-        <v>1.4609061672189323</v>
+        <v>1.4609294396145023</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -2761,11 +2684,11 @@
       </c>
       <c r="J23" s="5" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">_xll.generate_interpolation_function(I23,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56598290815214436</v>
+        <v>0.56599380007350542</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">_xll.price_one_touch($C$2,I23,J23,$C$3,$C$6)</f>
-        <v>2.342901233016928E-2</v>
+        <v>2.3431290437650062E-2</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" ref="L23">_xll.get_position(A23,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2773,11 +2696,11 @@
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.one_touch_delta($C$2,I23,J23,$C$3,$C$6)</f>
-        <v>1.553652763095853E-3</v>
+        <v>1.5537552347530507E-3</v>
       </c>
       <c r="N23">
         <f ca="1">L23*M23</f>
-        <v>-3.3434607461822754</v>
+        <v>-3.343681265188565</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -2810,11 +2733,11 @@
       </c>
       <c r="J24" s="5" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">_xll.generate_interpolation_function(I24,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.62109421858332303</v>
+        <v>0.62113176254984659</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">_xll.price_one_touch($C$2,I24,J24,$C$3,$C$6)</f>
-        <v>8.9836330859824204E-3</v>
+        <v>8.9871902556079401E-3</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" ref="L24">_xll.get_position(A24,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2822,11 +2745,11 @@
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.one_touch_delta($C$2,I24,J24,$C$3,$C$6)</f>
-        <v>6.0782415250863839E-4</v>
+        <v>6.0800365114045858E-4</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7589138282367096</v>
+        <v>-2.7597285725265417</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -2859,11 +2782,11 @@
       </c>
       <c r="J25" s="5" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">_xll.generate_interpolation_function(I25,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.73440703407923913</v>
+        <v>0.73448327722519013</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">_xll.price_one_touch($C$2,I25,J25,$C$3,$C$6)</f>
-        <v>8.5602448688341833E-3</v>
+        <v>8.5659785514566652E-3</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" ref="L25">_xll.get_position(A25,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2871,11 +2794,11 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.one_touch_delta($C$2,I25,J25,$C$3,$C$6)</f>
-        <v>4.9402805227818751E-4</v>
+        <v>4.9427492020814173E-4</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.855482142167924</v>
+        <v>-2.8569090388030594</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -2908,11 +2831,11 @@
       </c>
       <c r="J26" s="5" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">_xll.generate_interpolation_function(I26,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>1.769673346710277</v>
+        <v>1.7700248579165876</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">_xll.price_one_touch($C$2,I26,J26,$C$3,$C$6)</f>
-        <v>5.7369731233349722E-2</v>
+        <v>5.7397313250723614E-2</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" ref="L26">_xll.get_position(A26,_xlfn.ANCHORARRAY($X$2))</f>
@@ -2920,11 +2843,11 @@
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.one_touch_delta($C$2,I26,J26,$C$3,$C$6)</f>
-        <v>1.1612715227607984E-3</v>
+        <v>1.1615606508868781E-3</v>
       </c>
       <c r="N26">
         <f ca="1">L26*M26</f>
-        <v>-2.3829291647051583</v>
+        <v>-2.383522455619874</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -3013,23 +2936,23 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">_xll.find_strike(D33,D35,$C$6,$C$2,$C$3,0,D34)</f>
-        <v>35113.06197655898</v>
+        <v>35114.280341540543</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">_xll.find_strike(E33,E35,$C$6,$C$2,$C$3,0,E34)</f>
-        <v>71098.838674807135</v>
+        <v>71098.823521647369</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">_xll.find_strike(F33,F35,$C$6,$C$2,$C$3,0,F34)</f>
-        <v>98738.996577923826</v>
+        <v>98737.330303366325</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">_xll.find_strike(G33,G35,$C$6,$C$2,$C$3,0,G34)</f>
-        <v>149462.62295997277</v>
+        <v>149456.10652824733</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">_xll.find_strike(H33,H35,$C$6,$C$2,$C$3,0,H34)</f>
-        <v>308315.93637863384</v>
+        <v>308288.55334553076</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -3044,7 +2967,7 @@
       </c>
       <c r="C42" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">_xll.generate_interpolation_function(B42,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.74985797752824201</v>
+        <v>0.74986119611660285</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -3054,7 +2977,7 @@
       </c>
       <c r="C43" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">_xll.generate_interpolation_function(B43,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.72130321849851653</v>
+        <v>0.7213035754450916</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -3064,7 +2987,7 @@
       </c>
       <c r="C44" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">_xll.generate_interpolation_function(B44,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.69507651967138062</v>
+        <v>0.69507449686154033</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -3074,7 +2997,7 @@
       </c>
       <c r="C45" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">_xll.generate_interpolation_function(B45,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.67117788104683407</v>
+        <v>0.67117396036594934</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -3084,7 +3007,7 @@
       </c>
       <c r="C46" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">_xll.generate_interpolation_function(B46,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.6496073026248772</v>
+        <v>0.64960196595831832</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3094,7 +3017,7 @@
       </c>
       <c r="C47" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">_xll.generate_interpolation_function(B47,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.63036478440550958</v>
+        <v>0.63035851363864748</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -3104,7 +3027,7 @@
       </c>
       <c r="C48" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">_xll.generate_interpolation_function(B48,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.61345032638873165</v>
+        <v>0.61344360340693671</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -3114,7 +3037,7 @@
       </c>
       <c r="C49" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">_xll.generate_interpolation_function(B49,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.59886392857454318</v>
+        <v>0.59885723526318602</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3047,7 @@
       </c>
       <c r="C50" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">_xll.generate_interpolation_function(B50,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.58660559096294418</v>
+        <v>0.58659940920739539</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -3134,7 +3057,7 @@
       </c>
       <c r="C51" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">_xll.generate_interpolation_function(B51,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.57667531355393475</v>
+        <v>0.57667012523956485</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -3144,7 +3067,7 @@
       </c>
       <c r="C52" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">_xll.generate_interpolation_function(B52,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.5690730963475148</v>
+        <v>0.56906938335969448</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -3154,7 +3077,7 @@
       </c>
       <c r="C53" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">_xll.generate_interpolation_function(B53,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56379893934368419</v>
+        <v>0.56379718356778419</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3087,7 @@
       </c>
       <c r="C54" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">_xll.generate_interpolation_function(B54,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56085284254244328</v>
+        <v>0.56085352586383386</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -3174,7 +3097,7 @@
       </c>
       <c r="C55" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">_xll.generate_interpolation_function(B55,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56023480594379171</v>
+        <v>0.56023841024784382</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3107,7 @@
       </c>
       <c r="C56" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">_xll.generate_interpolation_function(B56,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.56194482954772962</v>
+        <v>0.56195183671981375</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -3194,7 +3117,7 @@
       </c>
       <c r="C57" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">_xll.generate_interpolation_function(B57,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.5659829133542571</v>
+        <v>0.56599380527974386</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3127,7 @@
       </c>
       <c r="C58" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">_xll.generate_interpolation_function(B58,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.57234905736337405</v>
+        <v>0.57236431592763393</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3137,7 @@
       </c>
       <c r="C59" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">_xll.generate_interpolation_function(B59,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.58104326157508046</v>
+        <v>0.58106336866348418</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3147,7 @@
       </c>
       <c r="C60" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">_xll.generate_interpolation_function(B60,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.59206552598937645</v>
+        <v>0.59209096348729451</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3157,7 @@
       </c>
       <c r="C61" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">_xll.generate_interpolation_function(B61,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.60541585060626191</v>
+        <v>0.60544710039906491</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3167,7 @@
       </c>
       <c r="C62" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">_xll.generate_interpolation_function(B62,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.62109423542573694</v>
+        <v>0.62113177939879549</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -3254,7 +3177,7 @@
       </c>
       <c r="C63" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">_xll.generate_interpolation_function(B63,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.63910068044780122</v>
+        <v>0.63914500048648615</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -3264,7 +3187,7 @@
       </c>
       <c r="C64" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">_xll.generate_interpolation_function(B64,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.65943518567245507</v>
+        <v>0.65948676366213677</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3197,7 @@
       </c>
       <c r="C65" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">_xll.generate_interpolation_function(B65,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.68209775109969861</v>
+        <v>0.68215706892574757</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3207,7 @@
       </c>
       <c r="C66" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">_xll.generate_interpolation_function(B66,$D$36:$H$36,$D$35:$H$35)</f>
-        <v>0.7070883767295314</v>
+        <v>0.70715591627731855</v>
       </c>
     </row>
   </sheetData>
@@ -3319,9 +3242,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="A1" ca="1">_xll.get_events("Crypto")</f>
-        <v>#VALUE!</v>
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1">_xll.get_events("Crypto")</f>
+        <v>##FileNotFoundError: [Errno 2] No such file or directory: 'mkt_key_2.txt'</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
